--- a/TestOutput/Hybrid.xlsx
+++ b/TestOutput/Hybrid.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11190" windowWidth="13305" xWindow="1560" yWindow="1560"/>
+    <workbookView windowHeight="11196" windowWidth="13308" xWindow="1560" yWindow="1560"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -12,12 +12,12 @@
     <sheet name="SupplierCreation" r:id="rId3" sheetId="3"/>
     <sheet name="StockCategories" r:id="rId4" sheetId="4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="120">
   <si>
     <t>Description</t>
   </si>
@@ -376,13 +376,7 @@
     <t>TableValidation</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -390,7 +384,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="34">
+  <fonts count="156">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,13 +588,745 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -667,7 +1393,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
@@ -706,6 +1432,128 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1011,19 +1859,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="26.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.88671875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="23.25" r="1" spans="1:4">
+    <row ht="23.4" r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="23.25" r="2" spans="1:4">
+    <row ht="23.4" r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1048,10 +1896,10 @@
         <v>36</v>
       </c>
       <c r="D2" t="s" s="35">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="3" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -1059,13 +1907,13 @@
         <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s" s="36">
-        <v>121</v>
-      </c>
-    </row>
-    <row ht="23.25" r="4" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="115">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
@@ -1073,10 +1921,10 @@
         <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s" s="37">
-        <v>121</v>
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="159">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1089,21 +1937,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.85546875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.85546875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="45.5703125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.85546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.88671875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.33203125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="45.5546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.88671875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="23.25" r="1" spans="1:6">
+    <row ht="23.4" r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="23.25" r="2" spans="1:6">
+    <row ht="23.4" r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1140,10 +1988,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s" s="10">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="3" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1160,10 +2008,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="4" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1180,10 +2028,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s" s="14">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="5" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1200,10 +2048,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s" s="16">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="6" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1220,10 +2068,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s" s="18">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="7" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1240,10 +2088,10 @@
         <v>24</v>
       </c>
       <c r="F7" t="s" s="20">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="8" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1260,10 +2108,10 @@
         <v>10</v>
       </c>
       <c r="F8" t="s" s="22">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="9" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1280,10 +2128,10 @@
         <v>12</v>
       </c>
       <c r="F9" t="s" s="24">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="10" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1300,10 +2148,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s" s="26">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="11" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1318,10 +2166,10 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s" s="28">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="12" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1338,10 +2186,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s" s="30">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="13" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1356,10 +2204,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" t="s" s="32">
-        <v>120</v>
-      </c>
-    </row>
-    <row ht="23.25" r="14" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1376,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="s" s="34">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1393,13 +2241,13 @@
       <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="39.42578125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.28515625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.33203125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.6640625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="39.44140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row ht="21" r="1" spans="1:6">
@@ -1422,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="23.25" r="2" spans="1:6">
+    <row ht="23.4" r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1438,9 +2286,11 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row ht="23.25" r="3" spans="1:6">
+      <c r="F2" t="s" s="36">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1456,9 +2306,11 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row ht="23.25" r="4" spans="1:6">
+      <c r="F3" t="s" s="38">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1474,9 +2326,11 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row ht="23.25" r="5" spans="1:6">
+      <c r="F4" t="s" s="40">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1492,9 +2346,11 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row ht="23.25" r="6" spans="1:6">
+      <c r="F5" t="s" s="42">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1510,9 +2366,11 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row ht="23.25" r="7" spans="1:6">
+      <c r="F6" t="s" s="44">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1528,9 +2386,11 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row ht="23.25" r="8" spans="1:6">
+      <c r="F7" t="s" s="46">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1546,9 +2406,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row ht="23.25" r="9" spans="1:6">
+      <c r="F8" t="s" s="48">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1564,7 +2426,9 @@
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" t="s" s="50">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -1582,7 +2446,9 @@
       <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" t="s" s="52">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="11" spans="1:6">
       <c r="A11" s="7" t="s">
@@ -1600,7 +2466,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" t="s" s="54">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="12" spans="1:6">
       <c r="A12" s="7" t="s">
@@ -1618,7 +2486,9 @@
       <c r="E12" s="7">
         <v>10</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" t="s" s="56">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="13" spans="1:6">
       <c r="A13" s="7" t="s">
@@ -1636,7 +2506,9 @@
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" t="s" s="58">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -1654,7 +2526,9 @@
       <c r="E14" s="7">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" t="s" s="60">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="15" spans="1:6">
       <c r="A15" s="7" t="s">
@@ -1672,7 +2546,9 @@
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" t="s" s="62">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="16" spans="1:6">
       <c r="A16" s="7" t="s">
@@ -1690,7 +2566,9 @@
       <c r="E16" s="7">
         <v>10</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" t="s" s="64">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="17" spans="1:6">
       <c r="A17" s="7" t="s">
@@ -1708,7 +2586,9 @@
       <c r="E17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" t="s" s="66">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="18" spans="1:6">
       <c r="A18" s="7" t="s">
@@ -1726,7 +2606,9 @@
       <c r="E18" s="7">
         <v>10</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" t="s" s="68">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="19" spans="1:6">
       <c r="A19" s="7" t="s">
@@ -1744,7 +2626,9 @@
       <c r="E19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" t="s" s="70">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="20" spans="1:6">
       <c r="A20" s="7" t="s">
@@ -1762,7 +2646,9 @@
       <c r="E20" s="7">
         <v>10</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" t="s" s="72">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="21" spans="1:6">
       <c r="A21" s="7" t="s">
@@ -1780,7 +2666,9 @@
       <c r="E21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" t="s" s="74">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="22" spans="1:6">
       <c r="A22" s="7" t="s">
@@ -1798,7 +2686,9 @@
       <c r="E22" s="7">
         <v>10</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" t="s" s="76">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="23" spans="1:6">
       <c r="A23" s="7" t="s">
@@ -1816,7 +2706,9 @@
       <c r="E23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" t="s" s="78">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="24" spans="1:6">
       <c r="A24" s="7" t="s">
@@ -1834,7 +2726,9 @@
       <c r="E24" s="7">
         <v>10</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" t="s" s="80">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="25" spans="1:6">
       <c r="A25" s="7" t="s">
@@ -1852,7 +2746,9 @@
       <c r="E25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" t="s" s="82">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="26" spans="1:6">
       <c r="A26" s="7" t="s">
@@ -1870,7 +2766,9 @@
       <c r="E26" s="7">
         <v>10</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" t="s" s="84">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="27" spans="1:6">
       <c r="A27" s="7" t="s">
@@ -1888,7 +2786,9 @@
       <c r="E27" s="7">
         <v>111111111</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" t="s" s="86">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="28" spans="1:6">
       <c r="A28" s="7" t="s">
@@ -1906,7 +2806,9 @@
       <c r="E28" s="7">
         <v>10</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" t="s" s="88">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="29" spans="1:6">
       <c r="A29" s="7" t="s">
@@ -1924,7 +2826,9 @@
       <c r="E29" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" t="s" s="90">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="30" spans="1:6">
       <c r="A30" s="7" t="s">
@@ -1942,7 +2846,9 @@
       <c r="E30" s="7">
         <v>10</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" t="s" s="92">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="31" spans="1:6">
       <c r="A31" s="7" t="s">
@@ -1960,7 +2866,9 @@
       <c r="E31" s="7">
         <v>2345687</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" t="s" s="94">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="32" spans="1:6">
       <c r="A32" s="7" t="s">
@@ -1978,7 +2886,9 @@
       <c r="E32" s="7">
         <v>10</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" t="s" s="96">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="33" spans="1:6">
       <c r="A33" s="7" t="s">
@@ -1996,7 +2906,9 @@
       <c r="E33" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" t="s" s="98">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="34" spans="1:6">
       <c r="A34" s="7" t="s">
@@ -2014,7 +2926,9 @@
       <c r="E34" s="7">
         <v>10</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" t="s" s="100">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="35" spans="1:6">
       <c r="A35" s="7" t="s">
@@ -2032,7 +2946,9 @@
       <c r="E35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" t="s" s="102">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="36" spans="1:6">
       <c r="A36" s="7" t="s">
@@ -2050,7 +2966,9 @@
       <c r="E36" s="7">
         <v>10</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" t="s" s="104">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="37" spans="1:6">
       <c r="A37" s="7" t="s">
@@ -2068,7 +2986,9 @@
       <c r="E37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" t="s" s="106">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="38" spans="1:6">
       <c r="A38" s="7" t="s">
@@ -2086,7 +3006,9 @@
       <c r="E38" s="7">
         <v>10</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" t="s" s="108">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="39" spans="1:6">
       <c r="A39" s="7" t="s">
@@ -2104,7 +3026,9 @@
       <c r="E39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" t="s" s="110">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="40" spans="1:6">
       <c r="A40" s="7" t="s">
@@ -2122,8 +3046,11 @@
       <c r="E40" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row ht="23.25" r="41" spans="1:6">
+      <c r="F40" t="s" s="112">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -2138,6 +3065,9 @@
       </c>
       <c r="E41" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="F41" t="s" s="114">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2153,16 +3083,16 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.85546875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.88671875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.33203125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.109375" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="40.0" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row ht="21" r="1" spans="1:6">
@@ -2185,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="23.25" r="2" spans="1:6">
+    <row ht="23.4" r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2201,9 +3131,11 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row ht="23.25" r="3" spans="1:6">
+      <c r="F2" t="s" s="116">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2219,9 +3151,11 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row ht="23.25" r="4" spans="1:6">
+      <c r="F3" t="s" s="118">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2237,9 +3171,11 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row ht="23.25" r="5" spans="1:6">
+      <c r="F4" t="s" s="120">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2255,9 +3191,11 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row ht="23.25" r="6" spans="1:6">
+      <c r="F5" t="s" s="122">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -2273,9 +3211,11 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row ht="23.25" r="7" spans="1:6">
+      <c r="F6" t="s" s="124">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2291,9 +3231,11 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row ht="23.25" r="8" spans="1:6">
+      <c r="F7" t="s" s="126">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -2309,9 +3251,11 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row ht="23.25" r="9" spans="1:6">
+      <c r="F8" t="s" s="128">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="23.4" r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2327,7 +3271,9 @@
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" t="s" s="130">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -2345,6 +3291,9 @@
       <c r="E10" s="7">
         <v>10</v>
       </c>
+      <c r="F10" t="s" s="132">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="11" spans="1:6">
       <c r="A11" s="7" t="s">
@@ -2362,6 +3311,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F11" t="s" s="134">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="12" spans="1:6">
       <c r="A12" s="7" t="s">
@@ -2379,6 +3331,9 @@
       <c r="E12" s="7">
         <v>10</v>
       </c>
+      <c r="F12" t="s" s="136">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="13" spans="1:6">
       <c r="A13" s="7" t="s">
@@ -2396,6 +3351,9 @@
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F13" t="s" s="138">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -2413,6 +3371,9 @@
       <c r="E14" s="7">
         <v>10</v>
       </c>
+      <c r="F14" t="s" s="140">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="15" spans="1:6">
       <c r="A15" s="7" t="s">
@@ -2430,6 +3391,9 @@
       <c r="E15" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="F15" t="s" s="142">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="16" spans="1:6">
       <c r="A16" s="7" t="s">
@@ -2447,6 +3411,9 @@
       <c r="E16" s="7">
         <v>10</v>
       </c>
+      <c r="F16" t="s" s="144">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="17" spans="1:5">
       <c r="A17" s="7" t="s">
@@ -2464,6 +3431,9 @@
       <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F17" t="s" s="146">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="18" spans="1:5">
       <c r="A18" s="7" t="s">
@@ -2481,6 +3451,9 @@
       <c r="E18" s="7">
         <v>10</v>
       </c>
+      <c r="F18" t="s" s="148">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="19" spans="1:5">
       <c r="A19" s="7" t="s">
@@ -2498,6 +3471,9 @@
       <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F19" t="s" s="150">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="20" spans="1:5">
       <c r="A20" s="7" t="s">
@@ -2515,6 +3491,9 @@
       <c r="E20" s="7">
         <v>10</v>
       </c>
+      <c r="F20" t="s" s="152">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="21" spans="1:5">
       <c r="A21" s="7" t="s">
@@ -2532,6 +3511,9 @@
       <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F21" t="s" s="154">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="22" spans="1:5">
       <c r="A22" s="7" t="s">
@@ -2549,6 +3531,9 @@
       <c r="E22" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="F22" t="s" s="156">
+        <v>119</v>
+      </c>
     </row>
     <row ht="21" r="23" spans="1:5">
       <c r="A23" s="7" t="s">
@@ -2565,6 +3550,9 @@
       </c>
       <c r="E23" s="7" t="s">
         <v>12</v>
+      </c>
+      <c r="F23" t="s" s="158">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
